--- a/Rainbow-Xudu-MSR.xlsx
+++ b/Rainbow-Xudu-MSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nuc972\技术细节\需求文档\git_tract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB397A-F189-47A8-8D0A-76DC26B830CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015584AE-9A77-4D28-85C2-9B2753CA1C41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>u-boot html upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,14 +355,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Rainbow-Xudu-MSR.xlsx
+++ b/Rainbow-Xudu-MSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nuc972\技术细节\需求文档\git_tract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015584AE-9A77-4D28-85C2-9B2753CA1C41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCBF14-1EF1-463B-890C-6CF68D229D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>u-boot html upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add RTC </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -374,6 +378,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rainbow-Xudu-MSR.xlsx
+++ b/Rainbow-Xudu-MSR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nuc972\技术细节\需求文档\git_tract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nuc972\段海云\Rainbow-xudu-MSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015584AE-9A77-4D28-85C2-9B2753CA1C41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87EC0BD-EB39-48BF-BD14-A91FE770C0BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段需求功能点" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>u-boot html upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI DO driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin ctrl driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>485/232 driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,23 +367,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -389,7 +425,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -404,7 +440,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
